--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04112268203788005</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02823821055531894</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.165038486798899</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.69089832350042</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.600701826819261</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3874464269475624</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5036672880747304</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.661886556350794</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.068907266028944</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.03639076779355577</v>
+      </c>
+      <c r="D3">
+        <v>0.02664415853854507</v>
+      </c>
+      <c r="E3">
+        <v>0.1439924413293205</v>
+      </c>
+      <c r="F3">
+        <v>0.6302301832116584</v>
+      </c>
+      <c r="G3">
+        <v>0.5464775030446134</v>
+      </c>
+      <c r="H3">
+        <v>0.3717535102761644</v>
+      </c>
+      <c r="I3">
+        <v>0.4609702141503718</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3.182638628221241</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.9241631456285759</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03348703874147674</v>
+      </c>
+      <c r="D4">
+        <v>0.02568232865963793</v>
+      </c>
+      <c r="E4">
+        <v>0.1315597905760697</v>
+      </c>
+      <c r="F4">
+        <v>0.5952284289155187</v>
+      </c>
+      <c r="G4">
+        <v>0.5155319533892282</v>
+      </c>
+      <c r="H4">
+        <v>0.3634363565691103</v>
+      </c>
+      <c r="I4">
+        <v>0.4364668092473849</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2.889600239591232</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8361781404501798</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.0323036311772853</v>
+      </c>
+      <c r="D5">
+        <v>0.02529414746528147</v>
+      </c>
+      <c r="E5">
+        <v>0.1266031383578792</v>
+      </c>
+      <c r="F5">
+        <v>0.5814844606394871</v>
+      </c>
+      <c r="G5">
+        <v>0.5034624822056486</v>
+      </c>
+      <c r="H5">
+        <v>0.3603559308809139</v>
+      </c>
+      <c r="I5">
+        <v>0.426877394668999</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2.770415070907944</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.800511181555791</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03210710548804485</v>
+      </c>
+      <c r="D6">
+        <v>0.02522990501010014</v>
+      </c>
+      <c r="E6">
+        <v>0.1257863468723244</v>
+      </c>
+      <c r="F6">
+        <v>0.5792323792583645</v>
+      </c>
+      <c r="G6">
+        <v>0.5014896546961296</v>
+      </c>
+      <c r="H6">
+        <v>0.3598624518407405</v>
+      </c>
+      <c r="I6">
+        <v>0.4253080203890036</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2.750636243166127</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.79459904880229</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03347108003472243</v>
+      </c>
+      <c r="D7">
+        <v>0.02567707883788373</v>
+      </c>
+      <c r="E7">
+        <v>0.1314925159903026</v>
+      </c>
+      <c r="F7">
+        <v>0.5950410278422495</v>
+      </c>
+      <c r="G7">
+        <v>0.5153670523036169</v>
+      </c>
+      <c r="H7">
+        <v>0.3633935910014117</v>
+      </c>
+      <c r="I7">
+        <v>0.4363359242139566</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2.887992031318419</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.8356964089246546</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.03949042829882643</v>
+      </c>
+      <c r="D8">
+        <v>0.02768475971631545</v>
+      </c>
+      <c r="E8">
+        <v>0.1576717799775977</v>
+      </c>
+      <c r="F8">
+        <v>0.6694845724989875</v>
+      </c>
+      <c r="G8">
+        <v>0.5814870222104958</v>
+      </c>
+      <c r="H8">
+        <v>0.3817477621416856</v>
+      </c>
+      <c r="I8">
+        <v>0.4885681594793567</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3.496339993965989</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.018792664017916</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.05133505955564033</v>
+      </c>
+      <c r="D9">
+        <v>0.03178122776527204</v>
+      </c>
+      <c r="E9">
+        <v>0.2135586239680975</v>
+      </c>
+      <c r="F9">
+        <v>0.835560644622916</v>
+      </c>
+      <c r="G9">
+        <v>0.732203983912953</v>
+      </c>
+      <c r="H9">
+        <v>0.4293095637070792</v>
+      </c>
+      <c r="I9">
+        <v>0.6062888908693864</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4.702851065163316</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.386672025571301</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.06010507342402605</v>
+      </c>
+      <c r="D10">
+        <v>0.03492866571412634</v>
+      </c>
+      <c r="E10">
+        <v>0.2584193871844178</v>
+      </c>
+      <c r="F10">
+        <v>0.9732586454478849</v>
+      </c>
+      <c r="G10">
+        <v>0.8594708207430131</v>
+      </c>
+      <c r="H10">
+        <v>0.4729990872418028</v>
+      </c>
+      <c r="I10">
+        <v>0.7047016019578294</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5.603508979245532</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.665086556479508</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.06412036160281787</v>
+      </c>
+      <c r="D11">
+        <v>0.03640120523453305</v>
+      </c>
+      <c r="E11">
+        <v>0.2799143853469133</v>
+      </c>
+      <c r="F11">
+        <v>1.04016335488204</v>
+      </c>
+      <c r="G11">
+        <v>0.9218834267165477</v>
+      </c>
+      <c r="H11">
+        <v>0.4951973406861327</v>
+      </c>
+      <c r="I11">
+        <v>0.7527107378920448</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>6.01783672859051</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.794204741075959</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.06564555762090407</v>
+      </c>
+      <c r="D12">
+        <v>0.0369657295228194</v>
+      </c>
+      <c r="E12">
+        <v>0.2882352682503821</v>
+      </c>
+      <c r="F12">
+        <v>1.06619207771044</v>
+      </c>
+      <c r="G12">
+        <v>0.9462540784728901</v>
+      </c>
+      <c r="H12">
+        <v>0.5039772206286983</v>
+      </c>
+      <c r="I12">
+        <v>0.7714174834342131</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>6.175535095321891</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.843518140493785</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.06531685369263585</v>
+      </c>
+      <c r="D13">
+        <v>0.03684382374692774</v>
+      </c>
+      <c r="E13">
+        <v>0.2864347310914397</v>
+      </c>
+      <c r="F13">
+        <v>1.060554120817073</v>
+      </c>
+      <c r="G13">
+        <v>0.940971190773368</v>
+      </c>
+      <c r="H13">
+        <v>0.5020690076733132</v>
+      </c>
+      <c r="I13">
+        <v>0.7673641862835723</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>6.1415339247622</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.832877868704642</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.06424574027469276</v>
+      </c>
+      <c r="D14">
+        <v>0.03644750407241304</v>
+      </c>
+      <c r="E14">
+        <v>0.2805951651396086</v>
+      </c>
+      <c r="F14">
+        <v>1.042290368016054</v>
+      </c>
+      <c r="G14">
+        <v>0.9238731269727651</v>
+      </c>
+      <c r="H14">
+        <v>0.495911930178238</v>
+      </c>
+      <c r="I14">
+        <v>0.7542388251622114</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>6.030793761228665</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.798252987753131</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.06359029483594014</v>
+      </c>
+      <c r="D15">
+        <v>0.03620567968216903</v>
+      </c>
+      <c r="E15">
+        <v>0.2770426466432951</v>
+      </c>
+      <c r="F15">
+        <v>1.031196111851585</v>
+      </c>
+      <c r="G15">
+        <v>0.9134986976700787</v>
+      </c>
+      <c r="H15">
+        <v>0.4921904873555292</v>
+      </c>
+      <c r="I15">
+        <v>0.7462696731806133</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>5.963070939567274</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.777100874716595</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.05984326539199003</v>
+      </c>
+      <c r="D16">
+        <v>0.03483333790413923</v>
+      </c>
+      <c r="E16">
+        <v>0.2570385763514196</v>
+      </c>
+      <c r="F16">
+        <v>0.9689787392519094</v>
+      </c>
+      <c r="G16">
+        <v>0.8554901222795479</v>
+      </c>
+      <c r="H16">
+        <v>0.4715984368534691</v>
+      </c>
+      <c r="I16">
+        <v>0.7016343457183751</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5.576535983079509</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.656703353988064</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.05755185285895692</v>
+      </c>
+      <c r="D17">
+        <v>0.03400258733873329</v>
+      </c>
+      <c r="E17">
+        <v>0.2450620164881485</v>
+      </c>
+      <c r="F17">
+        <v>0.9319571132457867</v>
+      </c>
+      <c r="G17">
+        <v>0.8211197207297403</v>
+      </c>
+      <c r="H17">
+        <v>0.4595879727019394</v>
+      </c>
+      <c r="I17">
+        <v>0.6751232250732428</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5.340684555415976</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.583518653053929</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.05623625273613442</v>
+      </c>
+      <c r="D18">
+        <v>0.03352852683228491</v>
+      </c>
+      <c r="E18">
+        <v>0.2382741375505972</v>
+      </c>
+      <c r="F18">
+        <v>0.9110594440561783</v>
+      </c>
+      <c r="G18">
+        <v>0.8017703470653288</v>
+      </c>
+      <c r="H18">
+        <v>0.4528959660629823</v>
+      </c>
+      <c r="I18">
+        <v>0.6601757600354574</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5.20545423214844</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.541652591913248</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.05579119005899003</v>
+      </c>
+      <c r="D19">
+        <v>0.03336863527238876</v>
+      </c>
+      <c r="E19">
+        <v>0.2359924695024347</v>
+      </c>
+      <c r="F19">
+        <v>0.9040495974056313</v>
+      </c>
+      <c r="G19">
+        <v>0.795288554502136</v>
+      </c>
+      <c r="H19">
+        <v>0.4506661403674599</v>
+      </c>
+      <c r="I19">
+        <v>0.6551647620980461</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>5.159736631358271</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.527514745502657</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.05779552659285514</v>
+      </c>
+      <c r="D20">
+        <v>0.03409062535838103</v>
+      </c>
+      <c r="E20">
+        <v>0.2463263472428494</v>
+      </c>
+      <c r="F20">
+        <v>0.9358565717155187</v>
+      </c>
+      <c r="G20">
+        <v>0.8247344867485396</v>
+      </c>
+      <c r="H20">
+        <v>0.4608438679388058</v>
+      </c>
+      <c r="I20">
+        <v>0.6779138044902453</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>5.365746386360684</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.591285264067878</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.06456021643998611</v>
+      </c>
+      <c r="D21">
+        <v>0.03656371628333233</v>
+      </c>
+      <c r="E21">
+        <v>0.2823052569515951</v>
+      </c>
+      <c r="F21">
+        <v>1.047635376051446</v>
+      </c>
+      <c r="G21">
+        <v>0.9288745203950555</v>
+      </c>
+      <c r="H21">
+        <v>0.4977099273862677</v>
+      </c>
+      <c r="I21">
+        <v>0.7580792496355855</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>6.063297905126888</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.80841122796005</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.06900923069400733</v>
+      </c>
+      <c r="D22">
+        <v>0.03822087136942542</v>
+      </c>
+      <c r="E22">
+        <v>0.3068894722736673</v>
+      </c>
+      <c r="F22">
+        <v>1.124774390660789</v>
+      </c>
+      <c r="G22">
+        <v>1.001275429642874</v>
+      </c>
+      <c r="H22">
+        <v>0.524005037809971</v>
+      </c>
+      <c r="I22">
+        <v>0.813575324947962</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>6.523934977152521</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.952794178067037</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.06663179917632789</v>
+      </c>
+      <c r="D23">
+        <v>0.03733229369132118</v>
+      </c>
+      <c r="E23">
+        <v>0.293661507720671</v>
+      </c>
+      <c r="F23">
+        <v>1.083201275591989</v>
+      </c>
+      <c r="G23">
+        <v>0.9622054602094323</v>
+      </c>
+      <c r="H23">
+        <v>0.5097551386740378</v>
+      </c>
+      <c r="I23">
+        <v>0.7836502244359878</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>6.277600287935968</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.87548418120781</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.05768535627830573</v>
+      </c>
+      <c r="D24">
+        <v>0.03405081239219498</v>
+      </c>
+      <c r="E24">
+        <v>0.2457544411267847</v>
+      </c>
+      <c r="F24">
+        <v>0.9340924284440177</v>
+      </c>
+      <c r="G24">
+        <v>0.8230989784455431</v>
+      </c>
+      <c r="H24">
+        <v>0.4602754173000676</v>
+      </c>
+      <c r="I24">
+        <v>0.6766512718889928</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>5.354414809656589</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.587773333652279</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.04812224598464354</v>
+      </c>
+      <c r="D25">
+        <v>0.03065210092109538</v>
+      </c>
+      <c r="E25">
+        <v>0.1978532085308089</v>
+      </c>
+      <c r="F25">
+        <v>0.7881466211465096</v>
+      </c>
+      <c r="G25">
+        <v>0.6888161956813406</v>
+      </c>
+      <c r="H25">
+        <v>0.4150392257241293</v>
+      </c>
+      <c r="I25">
+        <v>0.5725513991949924</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4.374426316086499</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.285938307113099</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04112268203788005</v>
+        <v>0.01486144694607106</v>
       </c>
       <c r="D2">
-        <v>0.02823821055531894</v>
+        <v>0.02060685928102401</v>
       </c>
       <c r="E2">
-        <v>0.165038486798899</v>
+        <v>0.094008856121512</v>
       </c>
       <c r="F2">
-        <v>0.69089832350042</v>
+        <v>0.7601367278425784</v>
       </c>
       <c r="G2">
-        <v>0.600701826819261</v>
+        <v>0.6052006538951105</v>
       </c>
       <c r="H2">
-        <v>0.3874464269475624</v>
+        <v>0.6993633722407964</v>
       </c>
       <c r="I2">
-        <v>0.5036672880747304</v>
+        <v>0.5712109158885781</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.661886556350794</v>
+        <v>1.195645398134332</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.068907266028944</v>
+        <v>0.3868638408174476</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03639076779355577</v>
+        <v>0.01327159670282185</v>
       </c>
       <c r="D3">
-        <v>0.02664415853854507</v>
+        <v>0.01998618411921171</v>
       </c>
       <c r="E3">
-        <v>0.1439924413293205</v>
+        <v>0.08978452448139507</v>
       </c>
       <c r="F3">
-        <v>0.6302301832116584</v>
+        <v>0.7547478513771892</v>
       </c>
       <c r="G3">
-        <v>0.5464775030446134</v>
+        <v>0.6008226339211831</v>
       </c>
       <c r="H3">
-        <v>0.3717535102761644</v>
+        <v>0.7035600338712555</v>
       </c>
       <c r="I3">
-        <v>0.4609702141503718</v>
+        <v>0.5680939701469683</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.182638628221241</v>
+        <v>1.049026711075612</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9241631456285759</v>
+        <v>0.346003700589101</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03348703874147674</v>
+        <v>0.01228988104438855</v>
       </c>
       <c r="D4">
-        <v>0.02568232865963793</v>
+        <v>0.01960754166852752</v>
       </c>
       <c r="E4">
-        <v>0.1315597905760697</v>
+        <v>0.08729285887928739</v>
       </c>
       <c r="F4">
-        <v>0.5952284289155187</v>
+        <v>0.7521823674383796</v>
       </c>
       <c r="G4">
-        <v>0.5155319533892282</v>
+        <v>0.5988333556774421</v>
       </c>
       <c r="H4">
-        <v>0.3634363565691103</v>
+        <v>0.7066747388953161</v>
       </c>
       <c r="I4">
-        <v>0.4364668092473849</v>
+        <v>0.5667457098550557</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.889600239591232</v>
+        <v>0.9588623443301287</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8361781404501798</v>
+        <v>0.321002343968523</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0323036311772853</v>
+        <v>0.01188845162072028</v>
       </c>
       <c r="D5">
-        <v>0.02529414746528147</v>
+        <v>0.01945387516252595</v>
       </c>
       <c r="E5">
-        <v>0.1266031383578792</v>
+        <v>0.08630284111840325</v>
       </c>
       <c r="F5">
-        <v>0.5814844606394871</v>
+        <v>0.7513229264827999</v>
       </c>
       <c r="G5">
-        <v>0.5034624822056486</v>
+        <v>0.5981973286668989</v>
       </c>
       <c r="H5">
-        <v>0.3603559308809139</v>
+        <v>0.7080788845903641</v>
       </c>
       <c r="I5">
-        <v>0.426877394668999</v>
+        <v>0.5663378018455063</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.770415070907944</v>
+        <v>0.9220855925075568</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.800511181555791</v>
+        <v>0.3108357594355695</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03210710548804485</v>
+        <v>0.01182171231657492</v>
       </c>
       <c r="D6">
-        <v>0.02522990501010014</v>
+        <v>0.01942839769709082</v>
       </c>
       <c r="E6">
-        <v>0.1257863468723244</v>
+        <v>0.08613997167145016</v>
       </c>
       <c r="F6">
-        <v>0.5792323792583645</v>
+        <v>0.7511914255595684</v>
       </c>
       <c r="G6">
-        <v>0.5014896546961296</v>
+        <v>0.5981022309884025</v>
       </c>
       <c r="H6">
-        <v>0.3598624518407405</v>
+        <v>0.708320176791446</v>
       </c>
       <c r="I6">
-        <v>0.4253080203890036</v>
+        <v>0.5662785960930989</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.750636243166127</v>
+        <v>0.9159768192673141</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.79459904880229</v>
+        <v>0.3091489094102897</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03347108003472243</v>
+        <v>0.01228447275506994</v>
       </c>
       <c r="D7">
-        <v>0.02567707883788373</v>
+        <v>0.01960546668218299</v>
       </c>
       <c r="E7">
-        <v>0.1314925159903026</v>
+        <v>0.08727940490312136</v>
       </c>
       <c r="F7">
-        <v>0.5950410278422495</v>
+        <v>0.7521700247437195</v>
       </c>
       <c r="G7">
-        <v>0.5153670523036169</v>
+        <v>0.5988240724394984</v>
       </c>
       <c r="H7">
-        <v>0.3633935910014117</v>
+        <v>0.7066931301021384</v>
       </c>
       <c r="I7">
-        <v>0.4363359242139566</v>
+        <v>0.5667396365845292</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.887992031318419</v>
+        <v>0.9583664964806076</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8356964089246546</v>
+        <v>0.3208651463484316</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03949042829882643</v>
+        <v>0.01431442867765043</v>
       </c>
       <c r="D8">
-        <v>0.02768475971631545</v>
+        <v>0.02039235029437592</v>
       </c>
       <c r="E8">
-        <v>0.1576717799775977</v>
+        <v>0.09253092600503976</v>
       </c>
       <c r="F8">
-        <v>0.6694845724989875</v>
+        <v>0.7581238263123993</v>
       </c>
       <c r="G8">
-        <v>0.5814870222104958</v>
+        <v>0.6035453966349849</v>
       </c>
       <c r="H8">
-        <v>0.3817477621416856</v>
+        <v>0.7006984959451898</v>
       </c>
       <c r="I8">
-        <v>0.4885681594793567</v>
+        <v>0.5700183907189995</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.496339993965989</v>
+        <v>1.145120939149137</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.018792664017916</v>
+        <v>0.3727570921326659</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05133505955564033</v>
+        <v>0.01825047879609087</v>
       </c>
       <c r="D9">
-        <v>0.03178122776527204</v>
+        <v>0.02195430972687262</v>
       </c>
       <c r="E9">
-        <v>0.2135586239680975</v>
+        <v>0.103654037010628</v>
       </c>
       <c r="F9">
-        <v>0.835560644622916</v>
+        <v>0.7757392793494375</v>
       </c>
       <c r="G9">
-        <v>0.732203983912953</v>
+        <v>0.6184003848310908</v>
       </c>
       <c r="H9">
-        <v>0.4293095637070792</v>
+        <v>0.6932295000653426</v>
       </c>
       <c r="I9">
-        <v>0.6062888908693864</v>
+        <v>0.5809680616964314</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.702851065163316</v>
+        <v>1.510205360288921</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.386672025571301</v>
+        <v>0.4752210225190083</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06010507342402605</v>
+        <v>0.02111438516911335</v>
       </c>
       <c r="D10">
-        <v>0.03492866571412634</v>
+        <v>0.02311276618208069</v>
       </c>
       <c r="E10">
-        <v>0.2584193871844178</v>
+        <v>0.1123505117302344</v>
       </c>
       <c r="F10">
-        <v>0.9732586454478849</v>
+        <v>0.7923636989575726</v>
       </c>
       <c r="G10">
-        <v>0.8594708207430131</v>
+        <v>0.6327994036293063</v>
       </c>
       <c r="H10">
-        <v>0.4729990872418028</v>
+        <v>0.6903811143289573</v>
       </c>
       <c r="I10">
-        <v>0.7047016019578294</v>
+        <v>0.5918152763761384</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.603508979245532</v>
+        <v>1.777725686464123</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.665086556479508</v>
+        <v>0.5509582563475277</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06412036160281787</v>
+        <v>0.0224110746141406</v>
       </c>
       <c r="D11">
-        <v>0.03640120523453305</v>
+        <v>0.02364203087070393</v>
       </c>
       <c r="E11">
-        <v>0.2799143853469133</v>
+        <v>0.1164253115327654</v>
       </c>
       <c r="F11">
-        <v>1.04016335488204</v>
+        <v>0.8007394899827602</v>
       </c>
       <c r="G11">
-        <v>0.9218834267165477</v>
+        <v>0.6401225384238387</v>
       </c>
       <c r="H11">
-        <v>0.4951973406861327</v>
+        <v>0.689664021585358</v>
       </c>
       <c r="I11">
-        <v>0.7527107378920448</v>
+        <v>0.5973687149111271</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.01783672859051</v>
+        <v>1.899273907596296</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.794204741075959</v>
+        <v>0.5855189344148783</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06564555762090407</v>
+        <v>0.02290120243426941</v>
       </c>
       <c r="D12">
-        <v>0.0369657295228194</v>
+        <v>0.02384276613185676</v>
       </c>
       <c r="E12">
-        <v>0.2882352682503821</v>
+        <v>0.1179857706730871</v>
       </c>
       <c r="F12">
-        <v>1.06619207771044</v>
+        <v>0.8040291574257452</v>
       </c>
       <c r="G12">
-        <v>0.9462540784728901</v>
+        <v>0.6430080154789835</v>
       </c>
       <c r="H12">
-        <v>0.5039772206286983</v>
+        <v>0.6894761372888496</v>
       </c>
       <c r="I12">
-        <v>0.7714174834342131</v>
+        <v>0.5995614604278856</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.175535095321891</v>
+        <v>1.945279178780083</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.843518140493785</v>
+        <v>0.5986219904620498</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06531685369263585</v>
+        <v>0.02279568500804174</v>
       </c>
       <c r="D13">
-        <v>0.03684382374692774</v>
+        <v>0.02379952042996791</v>
       </c>
       <c r="E13">
-        <v>0.2864347310914397</v>
+        <v>0.1176489175167035</v>
       </c>
       <c r="F13">
-        <v>1.060554120817073</v>
+        <v>0.8033154075877178</v>
       </c>
       <c r="G13">
-        <v>0.940971190773368</v>
+        <v>0.642381559531529</v>
       </c>
       <c r="H13">
-        <v>0.5020690076733132</v>
+        <v>0.6895128733492157</v>
       </c>
       <c r="I13">
-        <v>0.7673641862835723</v>
+        <v>0.5990852082403251</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.1415339247622</v>
+        <v>1.935372133995088</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.832877868704642</v>
+        <v>0.5957993118941118</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06424574027469276</v>
+        <v>0.02245141588686295</v>
       </c>
       <c r="D14">
-        <v>0.03644750407241304</v>
+        <v>0.02365853925718397</v>
       </c>
       <c r="E14">
-        <v>0.2805951651396086</v>
+        <v>0.1165533403046624</v>
       </c>
       <c r="F14">
-        <v>1.042290368016054</v>
+        <v>0.8010077635817936</v>
       </c>
       <c r="G14">
-        <v>0.9238731269727651</v>
+        <v>0.6403576694288091</v>
       </c>
       <c r="H14">
-        <v>0.495911930178238</v>
+        <v>0.6896468848929516</v>
       </c>
       <c r="I14">
-        <v>0.7542388251622114</v>
+        <v>0.5975473096901922</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.030793761228665</v>
+        <v>1.903059244101485</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.798252987753131</v>
+        <v>0.5865966151777116</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06359029483594014</v>
+        <v>0.0222404232476805</v>
       </c>
       <c r="D15">
-        <v>0.03620567968216903</v>
+        <v>0.02357222475782095</v>
       </c>
       <c r="E15">
-        <v>0.2770426466432951</v>
+        <v>0.1158845467021692</v>
       </c>
       <c r="F15">
-        <v>1.031196111851585</v>
+        <v>0.79960965335043</v>
       </c>
       <c r="G15">
-        <v>0.9134986976700787</v>
+        <v>0.6391326476333745</v>
       </c>
       <c r="H15">
-        <v>0.4921904873555292</v>
+        <v>0.6897398797382124</v>
       </c>
       <c r="I15">
-        <v>0.7462696731806133</v>
+        <v>0.5966170171400194</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.963070939567274</v>
+        <v>1.883263716507088</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.777100874716595</v>
+        <v>0.5809617463330312</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05984326539199003</v>
+        <v>0.0210295186009759</v>
       </c>
       <c r="D16">
-        <v>0.03483333790413923</v>
+        <v>0.02307822216306477</v>
       </c>
       <c r="E16">
-        <v>0.2570385763514196</v>
+        <v>0.112086632795048</v>
       </c>
       <c r="F16">
-        <v>0.9689787392519094</v>
+        <v>0.791832770886657</v>
       </c>
       <c r="G16">
-        <v>0.8554901222795479</v>
+        <v>0.6323364771406119</v>
       </c>
       <c r="H16">
-        <v>0.4715984368534691</v>
+        <v>0.690439660732352</v>
       </c>
       <c r="I16">
-        <v>0.7016343457183751</v>
+        <v>0.5914648674317746</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.576535983079509</v>
+        <v>1.76977914869309</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.656703353988064</v>
+        <v>0.5487018158785446</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05755185285895692</v>
+        <v>0.02028508638039028</v>
       </c>
       <c r="D17">
-        <v>0.03400258733873329</v>
+        <v>0.02277574113077918</v>
       </c>
       <c r="E17">
-        <v>0.2450620164881485</v>
+        <v>0.1097873918263161</v>
       </c>
       <c r="F17">
-        <v>0.9319571132457867</v>
+        <v>0.787270905506503</v>
       </c>
       <c r="G17">
-        <v>0.8211197207297403</v>
+        <v>0.6283660818979229</v>
       </c>
       <c r="H17">
-        <v>0.4595879727019394</v>
+        <v>0.6910174827021933</v>
       </c>
       <c r="I17">
-        <v>0.6751232250732428</v>
+        <v>0.5884632746879674</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.340684555415976</v>
+        <v>1.700121308789562</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.583518653053929</v>
+        <v>0.5289390687483717</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05623625273613442</v>
+        <v>0.01985633421045918</v>
       </c>
       <c r="D18">
-        <v>0.03352852683228491</v>
+        <v>0.02260197711138545</v>
       </c>
       <c r="E18">
-        <v>0.2382741375505972</v>
+        <v>0.108476083720852</v>
       </c>
       <c r="F18">
-        <v>0.9110594440561783</v>
+        <v>0.7847235296560626</v>
       </c>
       <c r="G18">
-        <v>0.8017703470653288</v>
+        <v>0.6261550964249949</v>
       </c>
       <c r="H18">
-        <v>0.4528959660629823</v>
+        <v>0.6914042689002429</v>
       </c>
       <c r="I18">
-        <v>0.6601757600354574</v>
+        <v>0.5867950537820832</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.20545423214844</v>
+        <v>1.660042083692417</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.541652591913248</v>
+        <v>0.5175821568626304</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05579119005899003</v>
+        <v>0.01971106807570777</v>
       </c>
       <c r="D19">
-        <v>0.03336863527238876</v>
+        <v>0.02254318095287289</v>
       </c>
       <c r="E19">
-        <v>0.2359924695024347</v>
+        <v>0.1080340025661073</v>
       </c>
       <c r="F19">
-        <v>0.9040495974056313</v>
+        <v>0.783874138737616</v>
       </c>
       <c r="G19">
-        <v>0.795288554502136</v>
+        <v>0.6254189407185464</v>
       </c>
       <c r="H19">
-        <v>0.4506661403674599</v>
+        <v>0.6915445640847224</v>
       </c>
       <c r="I19">
-        <v>0.6551647620980461</v>
+        <v>0.5862401980477827</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.159736631358271</v>
+        <v>1.646469597423902</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.527514745502657</v>
+        <v>0.5137386290910797</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05779552659285514</v>
+        <v>0.02036439206598573</v>
       </c>
       <c r="D20">
-        <v>0.03409062535838103</v>
+        <v>0.02280791859276121</v>
       </c>
       <c r="E20">
-        <v>0.2463263472428494</v>
+        <v>0.1100309929934369</v>
       </c>
       <c r="F20">
-        <v>0.9358565717155187</v>
+        <v>0.7877486004388885</v>
       </c>
       <c r="G20">
-        <v>0.8247344867485396</v>
+        <v>0.6287812062705171</v>
       </c>
       <c r="H20">
-        <v>0.4608438679388058</v>
+        <v>0.6909503351470363</v>
       </c>
       <c r="I20">
-        <v>0.6779138044902453</v>
+        <v>0.5887767686840704</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.365746386360684</v>
+        <v>1.707537949169989</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.591285264067878</v>
+        <v>0.5310418002233206</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06456021643998611</v>
+        <v>0.02255256067099509</v>
       </c>
       <c r="D21">
-        <v>0.03656371628333233</v>
+        <v>0.0236999404198599</v>
       </c>
       <c r="E21">
-        <v>0.2823052569515951</v>
+        <v>0.1168746623084118</v>
       </c>
       <c r="F21">
-        <v>1.047635376051446</v>
+        <v>0.8016823658733614</v>
       </c>
       <c r="G21">
-        <v>0.9288745203950555</v>
+        <v>0.6409490757641834</v>
       </c>
       <c r="H21">
-        <v>0.4977099273862677</v>
+        <v>0.689605248235452</v>
       </c>
       <c r="I21">
-        <v>0.7580792496355855</v>
+        <v>0.5979965850617148</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.063297905126888</v>
+        <v>1.912550939732398</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.80841122796005</v>
+        <v>0.5892992429279502</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06900923069400733</v>
+        <v>0.02397739820273159</v>
       </c>
       <c r="D22">
-        <v>0.03822087136942542</v>
+        <v>0.02428475408758857</v>
       </c>
       <c r="E22">
-        <v>0.3068894722736673</v>
+        <v>0.1214491011784062</v>
       </c>
       <c r="F22">
-        <v>1.124774390660789</v>
+        <v>0.8114767764948851</v>
       </c>
       <c r="G22">
-        <v>1.001275429642874</v>
+        <v>0.649556995710185</v>
       </c>
       <c r="H22">
-        <v>0.524005037809971</v>
+        <v>0.689214020868846</v>
       </c>
       <c r="I22">
-        <v>0.813575324947962</v>
+        <v>0.6045459261200961</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.523934977152521</v>
+        <v>2.046407718239095</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.952794178067037</v>
+        <v>0.6274653422941157</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06663179917632789</v>
+        <v>0.02321742339168509</v>
       </c>
       <c r="D23">
-        <v>0.03733229369132118</v>
+        <v>0.02397246514286877</v>
       </c>
       <c r="E23">
-        <v>0.293661507720671</v>
+        <v>0.1189982155074958</v>
       </c>
       <c r="F23">
-        <v>1.083201275591989</v>
+        <v>0.8061860452389027</v>
       </c>
       <c r="G23">
-        <v>0.9622054602094323</v>
+        <v>0.6449024051044319</v>
       </c>
       <c r="H23">
-        <v>0.5097551386740378</v>
+        <v>0.6893780362994875</v>
       </c>
       <c r="I23">
-        <v>0.7836502244359878</v>
+        <v>0.6010022501941492</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.277600287935968</v>
+        <v>1.974978183178564</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.87548418120781</v>
+        <v>0.6070869269314443</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05768535627830573</v>
+        <v>0.02032854035623899</v>
       </c>
       <c r="D24">
-        <v>0.03405081239219498</v>
+        <v>0.02279337073570531</v>
       </c>
       <c r="E24">
-        <v>0.2457544411267847</v>
+        <v>0.1099208280525872</v>
       </c>
       <c r="F24">
-        <v>0.9340924284440177</v>
+        <v>0.7875324000799964</v>
       </c>
       <c r="G24">
-        <v>0.8230989784455431</v>
+        <v>0.6285933054599155</v>
       </c>
       <c r="H24">
-        <v>0.4602754173000676</v>
+        <v>0.6909805225509444</v>
       </c>
       <c r="I24">
-        <v>0.6766512718889928</v>
+        <v>0.5886348592039354</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.354414809656589</v>
+        <v>1.704184985668178</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.587773333652279</v>
+        <v>0.5300911399122725</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04812224598464354</v>
+        <v>0.01719052790931386</v>
       </c>
       <c r="D25">
-        <v>0.03065210092109538</v>
+        <v>0.02152980433108809</v>
       </c>
       <c r="E25">
-        <v>0.1978532085308089</v>
+        <v>0.1005544209565841</v>
       </c>
       <c r="F25">
-        <v>0.7881466211465096</v>
+        <v>0.7703315938794333</v>
       </c>
       <c r="G25">
-        <v>0.6888161956813406</v>
+        <v>0.6137750031266194</v>
       </c>
       <c r="H25">
-        <v>0.4150392257241293</v>
+        <v>0.6947884894249796</v>
       </c>
       <c r="I25">
-        <v>0.5725513991949924</v>
+        <v>0.5775171342388674</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.374426316086499</v>
+        <v>1.411563825335122</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.285938307113099</v>
+        <v>0.4474236091305812</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01486144694607106</v>
+        <v>0.04112268203788716</v>
       </c>
       <c r="D2">
-        <v>0.02060685928102401</v>
+        <v>0.02823821055543974</v>
       </c>
       <c r="E2">
-        <v>0.094008856121512</v>
+        <v>0.1650384867989061</v>
       </c>
       <c r="F2">
-        <v>0.7601367278425784</v>
+        <v>0.6908983235004058</v>
       </c>
       <c r="G2">
-        <v>0.6052006538951105</v>
+        <v>0.600701826819261</v>
       </c>
       <c r="H2">
-        <v>0.6993633722407964</v>
+        <v>0.3874464269475482</v>
       </c>
       <c r="I2">
-        <v>0.5712109158885781</v>
+        <v>0.5036672880747304</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.195645398134332</v>
+        <v>3.66188655635068</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3868638408174476</v>
+        <v>1.068907266028944</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01327159670282185</v>
+        <v>0.03639076779356287</v>
       </c>
       <c r="D3">
-        <v>0.01998618411921171</v>
+        <v>0.02664415853860191</v>
       </c>
       <c r="E3">
-        <v>0.08978452448139507</v>
+        <v>0.1439924413293063</v>
       </c>
       <c r="F3">
-        <v>0.7547478513771892</v>
+        <v>0.6302301832116726</v>
       </c>
       <c r="G3">
-        <v>0.6008226339211831</v>
+        <v>0.5464775030446276</v>
       </c>
       <c r="H3">
-        <v>0.7035600338712555</v>
+        <v>0.3717535102760507</v>
       </c>
       <c r="I3">
-        <v>0.5680939701469683</v>
+        <v>0.4609702141503789</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.049026711075612</v>
+        <v>3.182638628221241</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.346003700589101</v>
+        <v>0.9241631456285688</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01228988104438855</v>
+        <v>0.03348703874124226</v>
       </c>
       <c r="D4">
-        <v>0.01960754166852752</v>
+        <v>0.02568232865975162</v>
       </c>
       <c r="E4">
-        <v>0.08729285887928739</v>
+        <v>0.131559790576059</v>
       </c>
       <c r="F4">
-        <v>0.7521823674383796</v>
+        <v>0.5952284289155187</v>
       </c>
       <c r="G4">
-        <v>0.5988333556774421</v>
+        <v>0.5155319533892708</v>
       </c>
       <c r="H4">
-        <v>0.7066747388953161</v>
+        <v>0.3634363565690961</v>
       </c>
       <c r="I4">
-        <v>0.5667457098550557</v>
+        <v>0.4364668092473849</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9588623443301287</v>
+        <v>2.889600239591346</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.321002343968523</v>
+        <v>0.8361781404501656</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01188845162072028</v>
+        <v>0.03230363117717872</v>
       </c>
       <c r="D5">
-        <v>0.01945387516252595</v>
+        <v>0.02529414746505054</v>
       </c>
       <c r="E5">
-        <v>0.08630284111840325</v>
+        <v>0.1266031383578792</v>
       </c>
       <c r="F5">
-        <v>0.7513229264827999</v>
+        <v>0.58148446063948</v>
       </c>
       <c r="G5">
-        <v>0.5981973286668989</v>
+        <v>0.503462482205606</v>
       </c>
       <c r="H5">
-        <v>0.7080788845903641</v>
+        <v>0.3603559308810134</v>
       </c>
       <c r="I5">
-        <v>0.5663378018455063</v>
+        <v>0.426877394668999</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9220855925075568</v>
+        <v>2.77041507090803</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3108357594355695</v>
+        <v>0.8005111815557839</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01182171231657492</v>
+        <v>0.03210710548825091</v>
       </c>
       <c r="D6">
-        <v>0.01942839769709082</v>
+        <v>0.0252299050099829</v>
       </c>
       <c r="E6">
-        <v>0.08613997167145016</v>
+        <v>0.1257863468723386</v>
       </c>
       <c r="F6">
-        <v>0.7511914255595684</v>
+        <v>0.5792323792583574</v>
       </c>
       <c r="G6">
-        <v>0.5981022309884025</v>
+        <v>0.5014896546961296</v>
       </c>
       <c r="H6">
-        <v>0.708320176791446</v>
+        <v>0.3598624518406268</v>
       </c>
       <c r="I6">
-        <v>0.5662785960930989</v>
+        <v>0.4253080203889894</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9159768192673141</v>
+        <v>2.750636243166156</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3091489094102897</v>
+        <v>0.7945990488022829</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01228447275506994</v>
+        <v>0.03347108003448795</v>
       </c>
       <c r="D7">
-        <v>0.01960546668218299</v>
+        <v>0.0256770788380507</v>
       </c>
       <c r="E7">
-        <v>0.08727940490312136</v>
+        <v>0.131492515990292</v>
       </c>
       <c r="F7">
-        <v>0.7521700247437195</v>
+        <v>0.5950410278422495</v>
       </c>
       <c r="G7">
-        <v>0.5988240724394984</v>
+        <v>0.5153670523036027</v>
       </c>
       <c r="H7">
-        <v>0.7066931301021384</v>
+        <v>0.3633935910014117</v>
       </c>
       <c r="I7">
-        <v>0.5667396365845292</v>
+        <v>0.4363359242139566</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9583664964806076</v>
+        <v>2.887992031318277</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3208651463484316</v>
+        <v>0.8356964089246475</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01431442867765043</v>
+        <v>0.03949042829847116</v>
       </c>
       <c r="D8">
-        <v>0.02039235029437592</v>
+        <v>0.02768475971607387</v>
       </c>
       <c r="E8">
-        <v>0.09253092600503976</v>
+        <v>0.1576717799776191</v>
       </c>
       <c r="F8">
-        <v>0.7581238263123993</v>
+        <v>0.6694845724989875</v>
       </c>
       <c r="G8">
-        <v>0.6035453966349849</v>
+        <v>0.5814870222105242</v>
       </c>
       <c r="H8">
-        <v>0.7006984959451898</v>
+        <v>0.3817477621416856</v>
       </c>
       <c r="I8">
-        <v>0.5700183907189995</v>
+        <v>0.4885681594793354</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.145120939149137</v>
+        <v>3.496339993966046</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3727570921326659</v>
+        <v>1.018792664017923</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01825047879609087</v>
+        <v>0.05133505955576112</v>
       </c>
       <c r="D9">
-        <v>0.02195430972687262</v>
+        <v>0.03178122776526493</v>
       </c>
       <c r="E9">
-        <v>0.103654037010628</v>
+        <v>0.2135586239680975</v>
       </c>
       <c r="F9">
-        <v>0.7757392793494375</v>
+        <v>0.8355606446229018</v>
       </c>
       <c r="G9">
-        <v>0.6184003848310908</v>
+        <v>0.7322039839129815</v>
       </c>
       <c r="H9">
-        <v>0.6932295000653426</v>
+        <v>0.4293095637070792</v>
       </c>
       <c r="I9">
-        <v>0.5809680616964314</v>
+        <v>0.6062888908693793</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.510205360288921</v>
+        <v>4.702851065163259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4752210225190083</v>
+        <v>1.386672025571301</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02111438516911335</v>
+        <v>0.06010507342387683</v>
       </c>
       <c r="D10">
-        <v>0.02311276618208069</v>
+        <v>0.03492866571424003</v>
       </c>
       <c r="E10">
-        <v>0.1123505117302344</v>
+        <v>0.2584193871844107</v>
       </c>
       <c r="F10">
-        <v>0.7923636989575726</v>
+        <v>0.9732586454478849</v>
       </c>
       <c r="G10">
-        <v>0.6327994036293063</v>
+        <v>0.8594708207429704</v>
       </c>
       <c r="H10">
-        <v>0.6903811143289573</v>
+        <v>0.4729990872418028</v>
       </c>
       <c r="I10">
-        <v>0.5918152763761384</v>
+        <v>0.7047016019578223</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.777725686464123</v>
+        <v>5.60350897924576</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5509582563475277</v>
+        <v>1.665086556479523</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0224110746141406</v>
+        <v>0.06412036160280365</v>
       </c>
       <c r="D11">
-        <v>0.02364203087070393</v>
+        <v>0.0364012052343341</v>
       </c>
       <c r="E11">
-        <v>0.1164253115327654</v>
+        <v>0.2799143853469275</v>
       </c>
       <c r="F11">
-        <v>0.8007394899827602</v>
+        <v>1.040163354882026</v>
       </c>
       <c r="G11">
-        <v>0.6401225384238387</v>
+        <v>0.9218834267165334</v>
       </c>
       <c r="H11">
-        <v>0.689664021585358</v>
+        <v>0.495197340686147</v>
       </c>
       <c r="I11">
-        <v>0.5973687149111271</v>
+        <v>0.7527107378920519</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.899273907596296</v>
+        <v>6.01783672859051</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5855189344148783</v>
+        <v>1.794204741075973</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02290120243426941</v>
+        <v>0.06564555762090407</v>
       </c>
       <c r="D12">
-        <v>0.02384276613185676</v>
+        <v>0.03696572952304678</v>
       </c>
       <c r="E12">
-        <v>0.1179857706730871</v>
+        <v>0.2882352682503679</v>
       </c>
       <c r="F12">
-        <v>0.8040291574257452</v>
+        <v>1.066192077710454</v>
       </c>
       <c r="G12">
-        <v>0.6430080154789835</v>
+        <v>0.9462540784729043</v>
       </c>
       <c r="H12">
-        <v>0.6894761372888496</v>
+        <v>0.5039772206285846</v>
       </c>
       <c r="I12">
-        <v>0.5995614604278856</v>
+        <v>0.771417483434206</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.945279178780083</v>
+        <v>6.175535095322005</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5986219904620498</v>
+        <v>1.843518140493785</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02279568500804174</v>
+        <v>0.06531685369274953</v>
       </c>
       <c r="D13">
-        <v>0.02379952042996791</v>
+        <v>0.0368438237467501</v>
       </c>
       <c r="E13">
-        <v>0.1176489175167035</v>
+        <v>0.2864347310914326</v>
       </c>
       <c r="F13">
-        <v>0.8033154075877178</v>
+        <v>1.060554120817059</v>
       </c>
       <c r="G13">
-        <v>0.642381559531529</v>
+        <v>0.9409711907732827</v>
       </c>
       <c r="H13">
-        <v>0.6895128733492157</v>
+        <v>0.5020690076733132</v>
       </c>
       <c r="I13">
-        <v>0.5990852082403251</v>
+        <v>0.7673641862835794</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.935372133995088</v>
+        <v>6.141533924762143</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5957993118941118</v>
+        <v>1.832877868704642</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02245141588686295</v>
+        <v>0.06424574027442986</v>
       </c>
       <c r="D14">
-        <v>0.02365853925718397</v>
+        <v>0.03644750407244857</v>
       </c>
       <c r="E14">
-        <v>0.1165533403046624</v>
+        <v>0.2805951651396086</v>
       </c>
       <c r="F14">
-        <v>0.8010077635817936</v>
+        <v>1.04229036801604</v>
       </c>
       <c r="G14">
-        <v>0.6403576694288091</v>
+        <v>0.9238731269727509</v>
       </c>
       <c r="H14">
-        <v>0.6896468848929516</v>
+        <v>0.495911930178238</v>
       </c>
       <c r="I14">
-        <v>0.5975473096901922</v>
+        <v>0.7542388251622185</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.903059244101485</v>
+        <v>6.030793761228608</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5865966151777116</v>
+        <v>1.798252987753131</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0222404232476805</v>
+        <v>0.06359029483594725</v>
       </c>
       <c r="D15">
-        <v>0.02357222475782095</v>
+        <v>0.03620567968204824</v>
       </c>
       <c r="E15">
-        <v>0.1158845467021692</v>
+        <v>0.2770426466432809</v>
       </c>
       <c r="F15">
-        <v>0.79960965335043</v>
+        <v>1.031196111851585</v>
       </c>
       <c r="G15">
-        <v>0.6391326476333745</v>
+        <v>0.9134986976700645</v>
       </c>
       <c r="H15">
-        <v>0.6897398797382124</v>
+        <v>0.4921904873555434</v>
       </c>
       <c r="I15">
-        <v>0.5966170171400194</v>
+        <v>0.7462696731806275</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.883263716507088</v>
+        <v>5.963070939567331</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5809617463330312</v>
+        <v>1.777100874716567</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0210295186009759</v>
+        <v>0.05984326539174134</v>
       </c>
       <c r="D16">
-        <v>0.02307822216306477</v>
+        <v>0.03483333790433107</v>
       </c>
       <c r="E16">
-        <v>0.112086632795048</v>
+        <v>0.2570385763513983</v>
       </c>
       <c r="F16">
-        <v>0.791832770886657</v>
+        <v>0.9689787392519094</v>
       </c>
       <c r="G16">
-        <v>0.6323364771406119</v>
+        <v>0.8554901222795337</v>
       </c>
       <c r="H16">
-        <v>0.690439660732352</v>
+        <v>0.4715984368534691</v>
       </c>
       <c r="I16">
-        <v>0.5914648674317746</v>
+        <v>0.7016343457183822</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.76977914869309</v>
+        <v>5.576535983079395</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5487018158785446</v>
+        <v>1.656703353988078</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02028508638039028</v>
+        <v>0.05755185285907061</v>
       </c>
       <c r="D17">
-        <v>0.02277574113077918</v>
+        <v>0.03400258733856276</v>
       </c>
       <c r="E17">
-        <v>0.1097873918263161</v>
+        <v>0.2450620164881414</v>
       </c>
       <c r="F17">
-        <v>0.787270905506503</v>
+        <v>0.9319571132458009</v>
       </c>
       <c r="G17">
-        <v>0.6283660818979229</v>
+        <v>0.8211197207297403</v>
       </c>
       <c r="H17">
-        <v>0.6910174827021933</v>
+        <v>0.4595879727020531</v>
       </c>
       <c r="I17">
-        <v>0.5884632746879674</v>
+        <v>0.6751232250732428</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.700121308789562</v>
+        <v>5.340684555415976</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5289390687483717</v>
+        <v>1.5835186530539</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01985633421045918</v>
+        <v>0.05623625273614152</v>
       </c>
       <c r="D18">
-        <v>0.02260197711138545</v>
+        <v>0.03352852683224228</v>
       </c>
       <c r="E18">
-        <v>0.108476083720852</v>
+        <v>0.2382741375505901</v>
       </c>
       <c r="F18">
-        <v>0.7847235296560626</v>
+        <v>0.9110594440562068</v>
       </c>
       <c r="G18">
-        <v>0.6261550964249949</v>
+        <v>0.8017703470653146</v>
       </c>
       <c r="H18">
-        <v>0.6914042689002429</v>
+        <v>0.4528959660629681</v>
       </c>
       <c r="I18">
-        <v>0.5867950537820832</v>
+        <v>0.6601757600354574</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.660042083692417</v>
+        <v>5.205454232148497</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5175821568626304</v>
+        <v>1.541652591913248</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01971106807570777</v>
+        <v>0.05579119005899003</v>
       </c>
       <c r="D19">
-        <v>0.02254318095287289</v>
+        <v>0.0333686352724385</v>
       </c>
       <c r="E19">
-        <v>0.1080340025661073</v>
+        <v>0.2359924695024489</v>
       </c>
       <c r="F19">
-        <v>0.783874138737616</v>
+        <v>0.9040495974056313</v>
       </c>
       <c r="G19">
-        <v>0.6254189407185464</v>
+        <v>0.7952885545020933</v>
       </c>
       <c r="H19">
-        <v>0.6915445640847224</v>
+        <v>0.4506661403674599</v>
       </c>
       <c r="I19">
-        <v>0.5862401980477827</v>
+        <v>0.655164762098039</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.646469597423902</v>
+        <v>5.159736631358328</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5137386290910797</v>
+        <v>1.527514745502657</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02036439206598573</v>
+        <v>0.05779552659296883</v>
       </c>
       <c r="D20">
-        <v>0.02280791859276121</v>
+        <v>0.0340906253582034</v>
       </c>
       <c r="E20">
-        <v>0.1100309929934369</v>
+        <v>0.2463263472428565</v>
       </c>
       <c r="F20">
-        <v>0.7877486004388885</v>
+        <v>0.9358565717155329</v>
       </c>
       <c r="G20">
-        <v>0.6287812062705171</v>
+        <v>0.8247344867485822</v>
       </c>
       <c r="H20">
-        <v>0.6909503351470363</v>
+        <v>0.4608438679388058</v>
       </c>
       <c r="I20">
-        <v>0.5887767686840704</v>
+        <v>0.6779138044902524</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.707537949169989</v>
+        <v>5.36574638636057</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5310418002233206</v>
+        <v>1.591285264067906</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02255256067099509</v>
+        <v>0.06456021643986531</v>
       </c>
       <c r="D21">
-        <v>0.0236999404198599</v>
+        <v>0.03656371628333233</v>
       </c>
       <c r="E21">
-        <v>0.1168746623084118</v>
+        <v>0.2823052569516022</v>
       </c>
       <c r="F21">
-        <v>0.8016823658733614</v>
+        <v>1.047635376051446</v>
       </c>
       <c r="G21">
-        <v>0.6409490757641834</v>
+        <v>0.9288745203950413</v>
       </c>
       <c r="H21">
-        <v>0.689605248235452</v>
+        <v>0.4977099273863814</v>
       </c>
       <c r="I21">
-        <v>0.5979965850617148</v>
+        <v>0.7580792496355784</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.912550939732398</v>
+        <v>6.063297905126831</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5892992429279502</v>
+        <v>1.808411227960022</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02397739820273159</v>
+        <v>0.06900923069429865</v>
       </c>
       <c r="D22">
-        <v>0.02428475408758857</v>
+        <v>0.03822087136946095</v>
       </c>
       <c r="E22">
-        <v>0.1214491011784062</v>
+        <v>0.3068894722736317</v>
       </c>
       <c r="F22">
-        <v>0.8114767764948851</v>
+        <v>1.124774390660804</v>
       </c>
       <c r="G22">
-        <v>0.649556995710185</v>
+        <v>1.001275429642902</v>
       </c>
       <c r="H22">
-        <v>0.689214020868846</v>
+        <v>0.5240050378099852</v>
       </c>
       <c r="I22">
-        <v>0.6045459261200961</v>
+        <v>0.813575324947962</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.046407718239095</v>
+        <v>6.523934977152635</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6274653422941157</v>
+        <v>1.952794178067037</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02321742339168509</v>
+        <v>0.06663179917607209</v>
       </c>
       <c r="D23">
-        <v>0.02397246514286877</v>
+        <v>0.03733229369131408</v>
       </c>
       <c r="E23">
-        <v>0.1189982155074958</v>
+        <v>0.2936615077206497</v>
       </c>
       <c r="F23">
-        <v>0.8061860452389027</v>
+        <v>1.083201275592018</v>
       </c>
       <c r="G23">
-        <v>0.6449024051044319</v>
+        <v>0.9622054602094323</v>
       </c>
       <c r="H23">
-        <v>0.6893780362994875</v>
+        <v>0.509755138674052</v>
       </c>
       <c r="I23">
-        <v>0.6010022501941492</v>
+        <v>0.7836502244359806</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.974978183178564</v>
+        <v>6.277600287935854</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6070869269314443</v>
+        <v>1.875484181207838</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02032854035623899</v>
+        <v>0.05768535627830573</v>
       </c>
       <c r="D24">
-        <v>0.02279337073570531</v>
+        <v>0.03405081239215946</v>
       </c>
       <c r="E24">
-        <v>0.1099208280525872</v>
+        <v>0.2457544411267634</v>
       </c>
       <c r="F24">
-        <v>0.7875324000799964</v>
+        <v>0.934092428444032</v>
       </c>
       <c r="G24">
-        <v>0.6285933054599155</v>
+        <v>0.8230989784455431</v>
       </c>
       <c r="H24">
-        <v>0.6909805225509444</v>
+        <v>0.4602754173000676</v>
       </c>
       <c r="I24">
-        <v>0.5886348592039354</v>
+        <v>0.6766512718889857</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.704184985668178</v>
+        <v>5.35441480965676</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5300911399122725</v>
+        <v>1.587773333652251</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01719052790931386</v>
+        <v>0.04812224598462933</v>
       </c>
       <c r="D25">
-        <v>0.02152980433108809</v>
+        <v>0.0306521009209817</v>
       </c>
       <c r="E25">
-        <v>0.1005544209565841</v>
+        <v>0.1978532085308231</v>
       </c>
       <c r="F25">
-        <v>0.7703315938794333</v>
+        <v>0.788146621146538</v>
       </c>
       <c r="G25">
-        <v>0.6137750031266194</v>
+        <v>0.6888161956812695</v>
       </c>
       <c r="H25">
-        <v>0.6947884894249796</v>
+        <v>0.4150392257241151</v>
       </c>
       <c r="I25">
-        <v>0.5775171342388674</v>
+        <v>0.5725513991949924</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.411563825335122</v>
+        <v>4.374426316086499</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4474236091305812</v>
+        <v>1.285938307113099</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04112268203788716</v>
+        <v>0.06906275305128773</v>
       </c>
       <c r="D2">
-        <v>0.02823821055543974</v>
+        <v>0.1133001321339862</v>
       </c>
       <c r="E2">
-        <v>0.1650384867989061</v>
+        <v>1.566050852166711</v>
       </c>
       <c r="F2">
-        <v>0.6908983235004058</v>
+        <v>3.92930031442728</v>
       </c>
       <c r="G2">
-        <v>0.600701826819261</v>
+        <v>4.508304365649565</v>
       </c>
       <c r="H2">
-        <v>0.3874464269475482</v>
+        <v>0.03713851012159619</v>
       </c>
       <c r="I2">
-        <v>0.5036672880747304</v>
+        <v>0.102890295514622</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.304428278179671</v>
       </c>
       <c r="K2">
-        <v>3.66188655635068</v>
+        <v>3.086625722822561</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.068907266028944</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>7.66312166460591</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,37 +483,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03639076779356287</v>
+        <v>0.05965663027485846</v>
       </c>
       <c r="D3">
-        <v>0.02664415853860191</v>
+        <v>0.0990086547854645</v>
       </c>
       <c r="E3">
-        <v>0.1439924413293063</v>
+        <v>1.357355519517313</v>
       </c>
       <c r="F3">
-        <v>0.6302301832116726</v>
+        <v>3.422973242572681</v>
       </c>
       <c r="G3">
-        <v>0.5464775030446276</v>
+        <v>3.918004146839621</v>
       </c>
       <c r="H3">
-        <v>0.3717535102760507</v>
+        <v>0.02817085424557142</v>
       </c>
       <c r="I3">
-        <v>0.4609702141503789</v>
+        <v>0.08175924793860734</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.021951438288653</v>
       </c>
       <c r="K3">
-        <v>3.182638628221241</v>
+        <v>2.694366180750819</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9241631456285688</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,37 +536,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03348703874124226</v>
+        <v>0.05416912227672555</v>
       </c>
       <c r="D4">
-        <v>0.02568232865975162</v>
+        <v>0.09022291575480068</v>
       </c>
       <c r="E4">
-        <v>0.131559790576059</v>
+        <v>1.230761943644907</v>
       </c>
       <c r="F4">
-        <v>0.5952284289155187</v>
+        <v>3.114631893911849</v>
       </c>
       <c r="G4">
-        <v>0.5155319533892708</v>
+        <v>3.55824117495095</v>
       </c>
       <c r="H4">
-        <v>0.3634363565690961</v>
+        <v>0.02316114042552275</v>
       </c>
       <c r="I4">
-        <v>0.4364668092473849</v>
+        <v>0.06975384281541608</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.849858969442693</v>
       </c>
       <c r="K4">
-        <v>2.889600239591346</v>
+        <v>2.454900218908108</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8361781404501656</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,37 +589,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03230363117717872</v>
+        <v>0.05210957140315031</v>
       </c>
       <c r="D5">
-        <v>0.02529414746505054</v>
+        <v>0.08644987264349169</v>
       </c>
       <c r="E5">
-        <v>0.1266031383578792</v>
+        <v>1.179392759409239</v>
       </c>
       <c r="F5">
-        <v>0.58148446063948</v>
+        <v>2.986597592042784</v>
       </c>
       <c r="G5">
-        <v>0.503462482205606</v>
+        <v>3.408551924724947</v>
       </c>
       <c r="H5">
-        <v>0.3603559308810134</v>
+        <v>0.0212190775130896</v>
       </c>
       <c r="I5">
-        <v>0.426877394668999</v>
+        <v>0.06504948955704126</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.778209543833157</v>
       </c>
       <c r="K5">
-        <v>2.77041507090803</v>
+        <v>2.354490412001226</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8005111815557839</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03210710548825091</v>
+        <v>0.05191350663263705</v>
       </c>
       <c r="D6">
-        <v>0.0252299050099829</v>
+        <v>0.0855940466053795</v>
       </c>
       <c r="E6">
-        <v>0.1257863468723386</v>
+        <v>1.170759614795656</v>
       </c>
       <c r="F6">
-        <v>0.5792323792583574</v>
+        <v>2.961832217537363</v>
       </c>
       <c r="G6">
-        <v>0.5014896546961296</v>
+        <v>3.37931595900443</v>
       </c>
       <c r="H6">
-        <v>0.3598624518406268</v>
+        <v>0.02088910622023521</v>
       </c>
       <c r="I6">
-        <v>0.4253080203889894</v>
+        <v>0.0642579609570193</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.764141779937461</v>
       </c>
       <c r="K6">
-        <v>2.750636243166156</v>
+        <v>2.334066680119719</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7945990488022829</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,37 +695,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03347108003448795</v>
+        <v>0.05452857989028814</v>
       </c>
       <c r="D7">
-        <v>0.0256770788380507</v>
+        <v>0.08954292667093</v>
       </c>
       <c r="E7">
-        <v>0.131492515990292</v>
+        <v>1.229729034929946</v>
       </c>
       <c r="F7">
-        <v>0.5950410278422495</v>
+        <v>3.103197370561418</v>
       </c>
       <c r="G7">
-        <v>0.5153670523036027</v>
+        <v>3.544108377321066</v>
       </c>
       <c r="H7">
-        <v>0.3633935910014117</v>
+        <v>0.02309462397923978</v>
       </c>
       <c r="I7">
-        <v>0.4363359242139566</v>
+        <v>0.06960527471237032</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.842891122875017</v>
       </c>
       <c r="K7">
-        <v>2.887992031318277</v>
+        <v>2.443205414426942</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8356964089246475</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,37 +748,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03949042829847116</v>
+        <v>0.06626707594417169</v>
       </c>
       <c r="D8">
-        <v>0.02768475971607387</v>
+        <v>0.1075238286915123</v>
       </c>
       <c r="E8">
-        <v>0.1576717799776191</v>
+        <v>1.493229860114212</v>
       </c>
       <c r="F8">
-        <v>0.6694845724989875</v>
+        <v>3.740993073537879</v>
       </c>
       <c r="G8">
-        <v>0.5814870222105242</v>
+        <v>4.287748952178987</v>
       </c>
       <c r="H8">
-        <v>0.3817477621416856</v>
+        <v>0.03387090177307073</v>
       </c>
       <c r="I8">
-        <v>0.4885681594793354</v>
+        <v>0.09520504614128367</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.198606671529035</v>
       </c>
       <c r="K8">
-        <v>3.496339993966046</v>
+        <v>2.937072137022966</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.018792664017923</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,37 +801,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05133505955576112</v>
+        <v>0.09141120203140218</v>
       </c>
       <c r="D9">
-        <v>0.03178122776526493</v>
+        <v>0.1439984033179513</v>
       </c>
       <c r="E9">
-        <v>0.2135586239680975</v>
+        <v>2.026478832118229</v>
       </c>
       <c r="F9">
-        <v>0.8355606446229018</v>
+        <v>5.03659216856866</v>
       </c>
       <c r="G9">
-        <v>0.7322039839129815</v>
+        <v>5.797419758911701</v>
       </c>
       <c r="H9">
-        <v>0.4293095637070792</v>
+        <v>0.05973270864281055</v>
       </c>
       <c r="I9">
-        <v>0.6062888908693793</v>
+        <v>0.1549361366680948</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.921624960756731</v>
       </c>
       <c r="K9">
-        <v>4.702851065163259</v>
+        <v>3.940382561415845</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.386672025571301</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,37 +854,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06010507342387683</v>
+        <v>0.1111790611190386</v>
       </c>
       <c r="D10">
-        <v>0.03492866571424003</v>
+        <v>0.1671529417644422</v>
       </c>
       <c r="E10">
-        <v>0.2584193871844107</v>
+        <v>2.320656902253049</v>
       </c>
       <c r="F10">
-        <v>0.9732586454478849</v>
+        <v>5.953392147186975</v>
       </c>
       <c r="G10">
-        <v>0.8594708207429704</v>
+        <v>6.858863739197545</v>
       </c>
       <c r="H10">
-        <v>0.4729990872418028</v>
+        <v>0.08076601342407486</v>
       </c>
       <c r="I10">
-        <v>0.7047016019578223</v>
+        <v>0.2048374620434892</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.429425662428628</v>
       </c>
       <c r="K10">
-        <v>5.60350897924576</v>
+        <v>4.64397215028913</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.665086556479523</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06412036160280365</v>
+        <v>0.1095106471215104</v>
       </c>
       <c r="D11">
-        <v>0.0364012052343341</v>
+        <v>0.1466891508531205</v>
       </c>
       <c r="E11">
-        <v>0.2799143853469275</v>
+        <v>1.583024460001042</v>
       </c>
       <c r="F11">
-        <v>1.040163354882026</v>
+        <v>5.86513669629079</v>
       </c>
       <c r="G11">
-        <v>0.9218834267165334</v>
+        <v>6.711461519129955</v>
       </c>
       <c r="H11">
-        <v>0.495197340686147</v>
+        <v>0.09384449871379275</v>
       </c>
       <c r="I11">
-        <v>0.7527107378920519</v>
+        <v>0.2125156083010964</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.351497389285441</v>
       </c>
       <c r="K11">
-        <v>6.01783672859051</v>
+        <v>4.55726164785824</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.794204741075973</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,37 +960,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06564555762090407</v>
+        <v>0.1045642535170899</v>
       </c>
       <c r="D12">
-        <v>0.03696572952304678</v>
+        <v>0.1269333873162708</v>
       </c>
       <c r="E12">
-        <v>0.2882352682503679</v>
+        <v>1.039193109662335</v>
       </c>
       <c r="F12">
-        <v>1.066192077710454</v>
+        <v>5.614112146628287</v>
       </c>
       <c r="G12">
-        <v>0.9462540784729043</v>
+        <v>6.386275640106874</v>
       </c>
       <c r="H12">
-        <v>0.5039772206285846</v>
+        <v>0.1261281472019249</v>
       </c>
       <c r="I12">
-        <v>0.771417483434206</v>
+        <v>0.2091664038156882</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.189393083913785</v>
       </c>
       <c r="K12">
-        <v>6.175535095322005</v>
+        <v>4.353990249782413</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.843518140493785</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06531685369274953</v>
+        <v>0.0975713461993557</v>
       </c>
       <c r="D13">
-        <v>0.0368438237467501</v>
+        <v>0.105799102523207</v>
       </c>
       <c r="E13">
-        <v>0.2864347310914326</v>
+        <v>0.6149341582742878</v>
       </c>
       <c r="F13">
-        <v>1.060554120817059</v>
+        <v>5.211010649265944</v>
       </c>
       <c r="G13">
-        <v>0.9409711907732827</v>
+        <v>5.890374899828203</v>
       </c>
       <c r="H13">
-        <v>0.5020690076733132</v>
+        <v>0.1743433221291752</v>
       </c>
       <c r="I13">
-        <v>0.7673641862835794</v>
+        <v>0.1971366407580391</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.945555449584106</v>
       </c>
       <c r="K13">
-        <v>6.141533924762143</v>
+        <v>4.035276527537093</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.832877868704642</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,37 +1066,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06424574027442986</v>
+        <v>0.09212608247808873</v>
       </c>
       <c r="D14">
-        <v>0.03644750407244857</v>
+        <v>0.0906092274280681</v>
       </c>
       <c r="E14">
-        <v>0.2805951651396086</v>
+        <v>0.3925142019408767</v>
       </c>
       <c r="F14">
-        <v>1.04229036801604</v>
+        <v>4.862065406865554</v>
       </c>
       <c r="G14">
-        <v>0.9238731269727509</v>
+        <v>5.468693495645539</v>
       </c>
       <c r="H14">
-        <v>0.495911930178238</v>
+        <v>0.2182395303858158</v>
       </c>
       <c r="I14">
-        <v>0.7542388251622185</v>
+        <v>0.185319992948183</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.7390567758207</v>
       </c>
       <c r="K14">
-        <v>6.030793761228608</v>
+        <v>3.760767861027006</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.798252987753131</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06359029483594725</v>
+        <v>0.09026953268498872</v>
       </c>
       <c r="D15">
-        <v>0.03620567968204824</v>
+        <v>0.08631471827751369</v>
       </c>
       <c r="E15">
-        <v>0.2770426466432809</v>
+        <v>0.3464546386706253</v>
       </c>
       <c r="F15">
-        <v>1.031196111851585</v>
+        <v>4.741985195977975</v>
       </c>
       <c r="G15">
-        <v>0.9134986976700645</v>
+        <v>5.326056262991017</v>
       </c>
       <c r="H15">
-        <v>0.4921904873555434</v>
+        <v>0.2288566439156057</v>
       </c>
       <c r="I15">
-        <v>0.7462696731806275</v>
+        <v>0.180567313546498</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.669649550756446</v>
       </c>
       <c r="K15">
-        <v>5.963070939567331</v>
+        <v>3.666152802827099</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.777100874716567</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,37 +1172,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05984326539174134</v>
+        <v>0.08381477357099598</v>
       </c>
       <c r="D16">
-        <v>0.03483333790433107</v>
+        <v>0.08137706817397117</v>
       </c>
       <c r="E16">
-        <v>0.2570385763513983</v>
+        <v>0.329446669106872</v>
       </c>
       <c r="F16">
-        <v>0.9689787392519094</v>
+        <v>4.439332770931344</v>
       </c>
       <c r="G16">
-        <v>0.8554901222795337</v>
+        <v>4.983213550338576</v>
       </c>
       <c r="H16">
-        <v>0.4715984368534691</v>
+        <v>0.2094872107961265</v>
       </c>
       <c r="I16">
-        <v>0.7016343457183822</v>
+        <v>0.1624251307470219</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.506707173921995</v>
       </c>
       <c r="K16">
-        <v>5.576535983079395</v>
+        <v>3.434960928536682</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.656703353988078</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,37 +1225,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05755185285907061</v>
+        <v>0.08162503107419639</v>
       </c>
       <c r="D17">
-        <v>0.03400258733856276</v>
+        <v>0.08530757509381459</v>
       </c>
       <c r="E17">
-        <v>0.2450620164881414</v>
+        <v>0.4188644943263284</v>
       </c>
       <c r="F17">
-        <v>0.9319571132458009</v>
+        <v>4.389236707007626</v>
       </c>
       <c r="G17">
-        <v>0.8211197207297403</v>
+        <v>4.939757447804197</v>
       </c>
       <c r="H17">
-        <v>0.4595879727020531</v>
+        <v>0.1693121261990029</v>
       </c>
       <c r="I17">
-        <v>0.6751232250732428</v>
+        <v>0.1545705322871278</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.489356356724329</v>
       </c>
       <c r="K17">
-        <v>5.340684555415976</v>
+        <v>3.400545269825713</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.5835186530539</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,37 +1278,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05623625273614152</v>
+        <v>0.08319193184131279</v>
       </c>
       <c r="D18">
-        <v>0.03352852683224228</v>
+        <v>0.0984449880002245</v>
       </c>
       <c r="E18">
-        <v>0.2382741375505901</v>
+        <v>0.6762161628035273</v>
       </c>
       <c r="F18">
-        <v>0.9110594440562068</v>
+        <v>4.559403615939345</v>
       </c>
       <c r="G18">
-        <v>0.8017703470653146</v>
+        <v>5.160769914244497</v>
       </c>
       <c r="H18">
-        <v>0.4528959660629681</v>
+        <v>0.1182563954809837</v>
       </c>
       <c r="I18">
-        <v>0.6601757600354574</v>
+        <v>0.1546498208384763</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.600864177346409</v>
       </c>
       <c r="K18">
-        <v>5.205454232148497</v>
+        <v>3.540820944741455</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.541652591913248</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,37 +1331,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05579119005899003</v>
+        <v>0.08912613316981677</v>
       </c>
       <c r="D19">
-        <v>0.0333686352724385</v>
+        <v>0.1183450128792174</v>
       </c>
       <c r="E19">
-        <v>0.2359924695024489</v>
+        <v>1.153598103191072</v>
       </c>
       <c r="F19">
-        <v>0.9040495974056313</v>
+        <v>4.884013338501632</v>
       </c>
       <c r="G19">
-        <v>0.7952885545020933</v>
+        <v>5.567003166041616</v>
       </c>
       <c r="H19">
-        <v>0.4506661403674599</v>
+        <v>0.07950905749350312</v>
       </c>
       <c r="I19">
-        <v>0.655164762098039</v>
+        <v>0.1617603646819976</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.801734960790213</v>
       </c>
       <c r="K19">
-        <v>5.159736631358328</v>
+        <v>3.798678160983656</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.527514745502657</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,37 +1384,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05779552659296883</v>
+        <v>0.106973945146251</v>
       </c>
       <c r="D20">
-        <v>0.0340906253582034</v>
+        <v>0.1588322958358788</v>
       </c>
       <c r="E20">
-        <v>0.2463263472428565</v>
+        <v>2.236282928749006</v>
       </c>
       <c r="F20">
-        <v>0.9358565717155329</v>
+        <v>5.675722308503907</v>
       </c>
       <c r="G20">
-        <v>0.8247344867485822</v>
+        <v>6.534389902927103</v>
       </c>
       <c r="H20">
-        <v>0.4608438679388058</v>
+        <v>0.07464209603648975</v>
       </c>
       <c r="I20">
-        <v>0.6779138044902524</v>
+        <v>0.190421652198669</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.27352831574342</v>
       </c>
       <c r="K20">
-        <v>5.36574638636057</v>
+        <v>4.421575535223155</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.591285264067906</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06456021643986531</v>
+        <v>0.1252463319330133</v>
       </c>
       <c r="D21">
-        <v>0.03656371628333233</v>
+        <v>0.1826703169085562</v>
       </c>
       <c r="E21">
-        <v>0.2823052569516022</v>
+        <v>2.642560679083431</v>
       </c>
       <c r="F21">
-        <v>1.047635376051446</v>
+        <v>6.485826001471594</v>
       </c>
       <c r="G21">
-        <v>0.9288745203950413</v>
+        <v>7.480302298419247</v>
       </c>
       <c r="H21">
-        <v>0.4977099273863814</v>
+        <v>0.09524027187559447</v>
       </c>
       <c r="I21">
-        <v>0.7580792496355784</v>
+        <v>0.2351031591261581</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.72750502648131</v>
       </c>
       <c r="K21">
-        <v>6.063297905126831</v>
+        <v>5.046257835709014</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.808411227960022</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,37 +1490,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06900923069429865</v>
+        <v>0.1367064786950465</v>
       </c>
       <c r="D22">
-        <v>0.03822087136946095</v>
+        <v>0.1974780842360815</v>
       </c>
       <c r="E22">
-        <v>0.3068894722736317</v>
+        <v>2.856634610765354</v>
       </c>
       <c r="F22">
-        <v>1.124774390660804</v>
+        <v>7.009465719252773</v>
       </c>
       <c r="G22">
-        <v>1.001275429642902</v>
+        <v>8.090117382095571</v>
       </c>
       <c r="H22">
-        <v>0.5240050378099852</v>
+        <v>0.1090150119297633</v>
       </c>
       <c r="I22">
-        <v>0.813575324947962</v>
+        <v>0.2660861337935474</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.020092987763292</v>
       </c>
       <c r="K22">
-        <v>6.523934977152635</v>
+        <v>5.452477802834153</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.952794178067037</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06663179917607209</v>
+        <v>0.1300290421148773</v>
       </c>
       <c r="D23">
-        <v>0.03733229369131408</v>
+        <v>0.1903678742794455</v>
       </c>
       <c r="E23">
-        <v>0.2936615077206497</v>
+        <v>2.742538441538727</v>
       </c>
       <c r="F23">
-        <v>1.083201275592018</v>
+        <v>6.74168245581248</v>
       </c>
       <c r="G23">
-        <v>0.9622054602094323</v>
+        <v>7.779346270665997</v>
       </c>
       <c r="H23">
-        <v>0.509755138674052</v>
+        <v>0.1016515501076558</v>
       </c>
       <c r="I23">
-        <v>0.7836502244359806</v>
+        <v>0.2495901517627104</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.871190427370436</v>
       </c>
       <c r="K23">
-        <v>6.277600287935854</v>
+        <v>5.248389289953082</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.875484181207838</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,37 +1596,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05768535627830573</v>
+        <v>0.1070992055667546</v>
       </c>
       <c r="D24">
-        <v>0.03405081239215946</v>
+        <v>0.1624579801647599</v>
       </c>
       <c r="E24">
-        <v>0.2457544411267634</v>
+        <v>2.319307126321178</v>
       </c>
       <c r="F24">
-        <v>0.934092428444032</v>
+        <v>5.726347500074212</v>
       </c>
       <c r="G24">
-        <v>0.8230989784455431</v>
+        <v>6.598609686814484</v>
       </c>
       <c r="H24">
-        <v>0.4602754173000676</v>
+        <v>0.07588640609850827</v>
       </c>
       <c r="I24">
-        <v>0.6766512718889857</v>
+        <v>0.1915320730349777</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.305208532287452</v>
       </c>
       <c r="K24">
-        <v>5.35441480965676</v>
+        <v>4.467108933482365</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.587773333652251</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04812224598462933</v>
+        <v>0.08494612628979326</v>
       </c>
       <c r="D25">
-        <v>0.0306521009209817</v>
+        <v>0.1329141237513483</v>
       </c>
       <c r="E25">
-        <v>0.1978532085308231</v>
+        <v>1.879204175865453</v>
       </c>
       <c r="F25">
-        <v>0.788146621146538</v>
+        <v>4.663737231464495</v>
       </c>
       <c r="G25">
-        <v>0.6888161956812695</v>
+        <v>5.361709532154521</v>
       </c>
       <c r="H25">
-        <v>0.4150392257241151</v>
+        <v>0.05202520286794599</v>
       </c>
       <c r="I25">
-        <v>0.5725513991949924</v>
+        <v>0.1372491228801218</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.712553505478354</v>
       </c>
       <c r="K25">
-        <v>4.374426316086499</v>
+        <v>3.646949644517719</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.285938307113099</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,37 +436,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06906275305128773</v>
+        <v>0.1516151599867044</v>
       </c>
       <c r="D2">
-        <v>0.1133001321339862</v>
+        <v>0.06150615272549231</v>
       </c>
       <c r="E2">
-        <v>1.566050852166711</v>
+        <v>1.503955040900792</v>
       </c>
       <c r="F2">
-        <v>3.92930031442728</v>
+        <v>3.013468388852971</v>
       </c>
       <c r="G2">
-        <v>4.508304365649565</v>
+        <v>3.353216413146157</v>
       </c>
       <c r="H2">
-        <v>0.03713851012159619</v>
+        <v>0.02913911967388971</v>
       </c>
       <c r="I2">
-        <v>0.102890295514622</v>
+        <v>0.06927560642597719</v>
       </c>
       <c r="J2">
-        <v>2.304428278179671</v>
+        <v>1.822570730290522</v>
       </c>
       <c r="K2">
-        <v>3.086625722822561</v>
+        <v>2.144962202920439</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8969168390620155</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7652060591326801</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,13 +475,19 @@
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>7.66312166460591</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,37 +495,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05965663027485846</v>
+        <v>0.1287848641389076</v>
       </c>
       <c r="D3">
-        <v>0.0990086547854645</v>
+        <v>0.05488046795226609</v>
       </c>
       <c r="E3">
-        <v>1.357355519517313</v>
+        <v>1.308039047531693</v>
       </c>
       <c r="F3">
-        <v>3.422973242572681</v>
+        <v>2.648161958521285</v>
       </c>
       <c r="G3">
-        <v>3.918004146839621</v>
+        <v>2.933839693128448</v>
       </c>
       <c r="H3">
-        <v>0.02817085424557142</v>
+        <v>0.02219360103866475</v>
       </c>
       <c r="I3">
-        <v>0.08175924793860734</v>
+        <v>0.05601523341476877</v>
       </c>
       <c r="J3">
-        <v>2.021951438288653</v>
+        <v>1.623391600679412</v>
       </c>
       <c r="K3">
-        <v>2.694366180750819</v>
+        <v>1.894867154155065</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.8272190624618077</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6434331786571903</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,13 +534,19 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,37 +554,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05416912227672555</v>
+        <v>0.1152919844139859</v>
       </c>
       <c r="D4">
-        <v>0.09022291575480068</v>
+        <v>0.05074113964916904</v>
       </c>
       <c r="E4">
-        <v>1.230761943644907</v>
+        <v>1.188662489969659</v>
       </c>
       <c r="F4">
-        <v>3.114631893911849</v>
+        <v>2.424365227843566</v>
       </c>
       <c r="G4">
-        <v>3.55824117495095</v>
+        <v>2.677099577382876</v>
       </c>
       <c r="H4">
-        <v>0.02316114042552275</v>
+        <v>0.018290771352103</v>
       </c>
       <c r="I4">
-        <v>0.06975384281541608</v>
+        <v>0.04839904643936421</v>
       </c>
       <c r="J4">
-        <v>1.849858969442693</v>
+        <v>1.500772831384694</v>
       </c>
       <c r="K4">
-        <v>2.454900218908108</v>
+        <v>1.7409976681692</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.7832991321725444</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5701927729134511</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,13 +593,19 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>6.187481969423061</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>6.187481969422947</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05210957140315031</v>
+        <v>0.1102599943268388</v>
       </c>
       <c r="D5">
-        <v>0.08644987264349169</v>
+        <v>0.04891406432163592</v>
       </c>
       <c r="E5">
-        <v>1.179392759409239</v>
+        <v>1.140129861239885</v>
       </c>
       <c r="F5">
-        <v>2.986597592042784</v>
+        <v>2.330937973526815</v>
       </c>
       <c r="G5">
-        <v>3.408551924724947</v>
+        <v>2.569762034275868</v>
       </c>
       <c r="H5">
-        <v>0.0212190775130896</v>
+        <v>0.0167742525973742</v>
       </c>
       <c r="I5">
-        <v>0.06504948955704126</v>
+        <v>0.0454227805274332</v>
       </c>
       <c r="J5">
-        <v>1.778209543833157</v>
+        <v>1.449274570614364</v>
       </c>
       <c r="K5">
-        <v>2.354490412001226</v>
+        <v>1.67585528530023</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.7641883751111607</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5398649226163528</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,13 +652,19 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05191350663263705</v>
+        <v>0.109859088670234</v>
       </c>
       <c r="D6">
-        <v>0.0855940466053795</v>
+        <v>0.04846055685445094</v>
       </c>
       <c r="E6">
-        <v>1.170759614795656</v>
+        <v>1.131995672441519</v>
       </c>
       <c r="F6">
-        <v>2.961832217537363</v>
+        <v>2.312623988512044</v>
       </c>
       <c r="G6">
-        <v>3.37931595900443</v>
+        <v>2.548491664613039</v>
       </c>
       <c r="H6">
-        <v>0.02088910622023521</v>
+        <v>0.016517727326951</v>
       </c>
       <c r="I6">
-        <v>0.0642579609570193</v>
+        <v>0.0449577601133555</v>
       </c>
       <c r="J6">
-        <v>1.764141779937461</v>
+        <v>1.438970769292695</v>
       </c>
       <c r="K6">
-        <v>2.334066680119719</v>
+        <v>1.662187536055583</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.7598687886384425</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5338220184107954</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,13 +711,19 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05452857989028814</v>
+        <v>0.1160568421281454</v>
       </c>
       <c r="D7">
-        <v>0.08954292667093</v>
+        <v>0.0500612978235111</v>
       </c>
       <c r="E7">
-        <v>1.229729034929946</v>
+        <v>1.187660653051964</v>
       </c>
       <c r="F7">
-        <v>3.103197370561418</v>
+        <v>2.410807164421783</v>
       </c>
       <c r="G7">
-        <v>3.544108377321066</v>
+        <v>2.673296065766181</v>
       </c>
       <c r="H7">
-        <v>0.02309462397923978</v>
+        <v>0.0182306892806654</v>
       </c>
       <c r="I7">
-        <v>0.06960527471237032</v>
+        <v>0.04835430669427421</v>
       </c>
       <c r="J7">
-        <v>1.842891122875017</v>
+        <v>1.479025749179073</v>
       </c>
       <c r="K7">
-        <v>2.443205414426942</v>
+        <v>1.72899998157034</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.7786688758701104</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.56572398007998</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,13 +770,19 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,37 +790,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06626707594417169</v>
+        <v>0.1440553264542359</v>
       </c>
       <c r="D8">
-        <v>0.1075238286915123</v>
+        <v>0.05786924178821806</v>
       </c>
       <c r="E8">
-        <v>1.493229860114212</v>
+        <v>1.435467450623804</v>
       </c>
       <c r="F8">
-        <v>3.740993073537879</v>
+        <v>2.861619931739142</v>
       </c>
       <c r="G8">
-        <v>4.287748952178987</v>
+        <v>3.219566788353859</v>
       </c>
       <c r="H8">
-        <v>0.03387090177307073</v>
+        <v>0.02657435361327121</v>
       </c>
       <c r="I8">
-        <v>0.09520504614128367</v>
+        <v>0.06442662652276265</v>
       </c>
       <c r="J8">
-        <v>2.198606671529035</v>
+        <v>1.693346282604807</v>
       </c>
       <c r="K8">
-        <v>2.937072137022966</v>
+        <v>2.037224070462514</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.8648819029158403</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7147728250137959</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,13 +829,19 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09141120203140218</v>
+        <v>0.2028589678901653</v>
       </c>
       <c r="D9">
-        <v>0.1439984033179513</v>
+        <v>0.07426341173964346</v>
       </c>
       <c r="E9">
-        <v>2.026478832118229</v>
+        <v>1.931812570852813</v>
       </c>
       <c r="F9">
-        <v>5.03659216856866</v>
+        <v>3.783482342799232</v>
       </c>
       <c r="G9">
-        <v>5.797419758911701</v>
+        <v>4.29234909066929</v>
       </c>
       <c r="H9">
-        <v>0.05973270864281055</v>
+        <v>0.0463624868880359</v>
       </c>
       <c r="I9">
-        <v>0.1549361366680948</v>
+        <v>0.1010659563384904</v>
       </c>
       <c r="J9">
-        <v>2.921624960756731</v>
+        <v>2.179315306425224</v>
       </c>
       <c r="K9">
-        <v>3.940382561415845</v>
+        <v>2.667183002024615</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.035438022511855</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.030243856340206</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,13 +888,19 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1111790611190386</v>
+        <v>0.2446240778966882</v>
       </c>
       <c r="D10">
-        <v>0.1671529417644422</v>
+        <v>0.0823044016686012</v>
       </c>
       <c r="E10">
-        <v>2.320656902253049</v>
+        <v>2.195719604477503</v>
       </c>
       <c r="F10">
-        <v>5.953392147186975</v>
+        <v>4.396789623590479</v>
       </c>
       <c r="G10">
-        <v>6.858863739197545</v>
+        <v>5.07936227584247</v>
       </c>
       <c r="H10">
-        <v>0.08076601342407486</v>
+        <v>0.06202984156607005</v>
       </c>
       <c r="I10">
-        <v>0.2048374620434892</v>
+        <v>0.1306766735182991</v>
       </c>
       <c r="J10">
-        <v>3.429425662428628</v>
+        <v>2.414142791181007</v>
       </c>
       <c r="K10">
-        <v>4.64397215028913</v>
+        <v>3.078954375441057</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.136948341629591</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.250404479932314</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,13 +947,19 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1095106471215104</v>
+        <v>0.2306783027745212</v>
       </c>
       <c r="D11">
-        <v>0.1466891508531205</v>
+        <v>0.06641392483919617</v>
       </c>
       <c r="E11">
-        <v>1.583024460001042</v>
+        <v>1.470800123222389</v>
       </c>
       <c r="F11">
-        <v>5.86513669629079</v>
+        <v>4.26126423574982</v>
       </c>
       <c r="G11">
-        <v>6.711461519129955</v>
+        <v>5.048305546381869</v>
       </c>
       <c r="H11">
-        <v>0.09384449871379275</v>
+        <v>0.07547179840035767</v>
       </c>
       <c r="I11">
-        <v>0.2125156083010964</v>
+        <v>0.1351119097835403</v>
       </c>
       <c r="J11">
-        <v>3.351497389285441</v>
+        <v>2.149640511173118</v>
       </c>
       <c r="K11">
-        <v>4.55726164785824</v>
+        <v>2.966314464492214</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.0765399324669</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.228106646935402</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,13 +1006,19 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1045642535170899</v>
+        <v>0.2112143203966212</v>
       </c>
       <c r="D12">
-        <v>0.1269333873162708</v>
+        <v>0.05424424574231779</v>
       </c>
       <c r="E12">
-        <v>1.039193109662335</v>
+        <v>0.9419724916095191</v>
       </c>
       <c r="F12">
-        <v>5.614112146628287</v>
+        <v>4.049500981896216</v>
       </c>
       <c r="G12">
-        <v>6.386275640106874</v>
+        <v>4.845518347498739</v>
       </c>
       <c r="H12">
-        <v>0.1261281472019249</v>
+        <v>0.1089069609647098</v>
       </c>
       <c r="I12">
-        <v>0.2091664038156882</v>
+        <v>0.1331856106312745</v>
       </c>
       <c r="J12">
-        <v>3.189393083913785</v>
+        <v>1.950797674384688</v>
       </c>
       <c r="K12">
-        <v>4.353990249782413</v>
+        <v>2.811500860884323</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.01468568860362</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.172945705589171</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,13 +1065,19 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,37 +1085,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0975713461993557</v>
+        <v>0.1891531118985483</v>
       </c>
       <c r="D13">
-        <v>0.105799102523207</v>
+        <v>0.04378184648957983</v>
       </c>
       <c r="E13">
-        <v>0.6149341582742878</v>
+        <v>0.5344434031005463</v>
       </c>
       <c r="F13">
-        <v>5.211010649265944</v>
+        <v>3.766372831206354</v>
       </c>
       <c r="G13">
-        <v>5.890374899828203</v>
+        <v>4.46964037387869</v>
       </c>
       <c r="H13">
-        <v>0.1743433221291752</v>
+        <v>0.1589296867197305</v>
       </c>
       <c r="I13">
-        <v>0.1971366407580391</v>
+        <v>0.1264904122378843</v>
       </c>
       <c r="J13">
-        <v>2.945555449584106</v>
+        <v>1.811900909184203</v>
       </c>
       <c r="K13">
-        <v>4.035276527537093</v>
+        <v>2.61127295224837</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9459016139764884</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.088384983162229</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,13 +1124,19 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09212608247808873</v>
+        <v>0.1731319503976323</v>
       </c>
       <c r="D14">
-        <v>0.0906092274280681</v>
+        <v>0.03712757803162958</v>
       </c>
       <c r="E14">
-        <v>0.3925142019408767</v>
+        <v>0.3236027481735348</v>
       </c>
       <c r="F14">
-        <v>4.862065406865554</v>
+        <v>3.534715762778518</v>
       </c>
       <c r="G14">
-        <v>5.468693495645539</v>
+        <v>4.132202869857025</v>
       </c>
       <c r="H14">
-        <v>0.2182395303858158</v>
+        <v>0.2042816887412613</v>
       </c>
       <c r="I14">
-        <v>0.185319992948183</v>
+        <v>0.1199292371591723</v>
       </c>
       <c r="J14">
-        <v>2.7390567758207</v>
+        <v>1.735701198919799</v>
       </c>
       <c r="K14">
-        <v>3.760767861027006</v>
+        <v>2.448976167845572</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8936370074011108</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.015769006136537</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,13 +1183,19 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09026953268498872</v>
+        <v>0.1687435554288044</v>
       </c>
       <c r="D15">
-        <v>0.08631471827751369</v>
+        <v>0.03551129593823887</v>
       </c>
       <c r="E15">
-        <v>0.3464546386706253</v>
+        <v>0.2808972348003955</v>
       </c>
       <c r="F15">
-        <v>4.741985195977975</v>
+        <v>3.459239997991318</v>
       </c>
       <c r="G15">
-        <v>5.326056262991017</v>
+        <v>4.012663088947676</v>
       </c>
       <c r="H15">
-        <v>0.2288566439156057</v>
+        <v>0.2154267886701007</v>
       </c>
       <c r="I15">
-        <v>0.180567313546498</v>
+        <v>0.117311581627539</v>
       </c>
       <c r="J15">
-        <v>2.669649550756446</v>
+        <v>1.72347161576883</v>
       </c>
       <c r="K15">
-        <v>3.666152802827099</v>
+        <v>2.396133813248923</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.8779343143750538</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9905466515601091</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,13 +1242,19 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>11.93801081193845</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08381477357099598</v>
+        <v>0.1595212391125784</v>
       </c>
       <c r="D16">
-        <v>0.08137706817397117</v>
+        <v>0.03561395899259878</v>
       </c>
       <c r="E16">
-        <v>0.329446669106872</v>
+        <v>0.2705875386280248</v>
       </c>
       <c r="F16">
-        <v>4.439332770931344</v>
+        <v>3.295667075492418</v>
       </c>
       <c r="G16">
-        <v>4.983213550338576</v>
+        <v>3.697889986502787</v>
       </c>
       <c r="H16">
-        <v>0.2094872107961265</v>
+        <v>0.1978648552732949</v>
       </c>
       <c r="I16">
-        <v>0.1624251307470219</v>
+        <v>0.1069083750892004</v>
       </c>
       <c r="J16">
-        <v>2.506707173921995</v>
+        <v>1.77782993967142</v>
       </c>
       <c r="K16">
-        <v>3.434960928536682</v>
+        <v>2.288908053838071</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.8568326325451352</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.926356592146135</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,13 +1301,19 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>11.23323027560713</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08162503107419639</v>
+        <v>0.1604669337422706</v>
       </c>
       <c r="D17">
-        <v>0.08530757509381459</v>
+        <v>0.03901509138566439</v>
       </c>
       <c r="E17">
-        <v>0.4188644943263284</v>
+        <v>0.3597397441876353</v>
       </c>
       <c r="F17">
-        <v>4.389236707007626</v>
+        <v>3.285662138247318</v>
       </c>
       <c r="G17">
-        <v>4.939757447804197</v>
+        <v>3.641932577204017</v>
       </c>
       <c r="H17">
-        <v>0.1693121261990029</v>
+        <v>0.1583365617706534</v>
       </c>
       <c r="I17">
-        <v>0.1545705322871278</v>
+        <v>0.102241137750954</v>
       </c>
       <c r="J17">
-        <v>2.489356356724329</v>
+        <v>1.841382645939973</v>
       </c>
       <c r="K17">
-        <v>3.400545269825713</v>
+        <v>2.2873322537707</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.8668373930598676</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9131044246186093</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,13 +1360,19 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08319193184131279</v>
+        <v>0.1707570043110422</v>
       </c>
       <c r="D18">
-        <v>0.0984449880002245</v>
+        <v>0.04685792167064307</v>
       </c>
       <c r="E18">
-        <v>0.6762161628035273</v>
+        <v>0.610170018135058</v>
       </c>
       <c r="F18">
-        <v>4.559403615939345</v>
+        <v>3.424065948784943</v>
       </c>
       <c r="G18">
-        <v>5.160769914244497</v>
+        <v>3.795428104296377</v>
       </c>
       <c r="H18">
-        <v>0.1182563954809837</v>
+        <v>0.106951785429608</v>
       </c>
       <c r="I18">
-        <v>0.1546498208384763</v>
+        <v>0.1020314709378241</v>
       </c>
       <c r="J18">
-        <v>2.600864177346409</v>
+        <v>1.95664173662712</v>
       </c>
       <c r="K18">
-        <v>3.540820944741455</v>
+        <v>2.39100105029226</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9104053438786508</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9474508137405451</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,13 +1419,19 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>10.55149949033279</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08912613316981677</v>
+        <v>0.1915534074325791</v>
       </c>
       <c r="D19">
-        <v>0.1183450128792174</v>
+        <v>0.05819463081859766</v>
       </c>
       <c r="E19">
-        <v>1.153598103191072</v>
+        <v>1.073998390178389</v>
       </c>
       <c r="F19">
-        <v>4.884013338501632</v>
+        <v>3.666879695526802</v>
       </c>
       <c r="G19">
-        <v>5.567003166041616</v>
+        <v>4.090645228789413</v>
       </c>
       <c r="H19">
-        <v>0.07950905749350312</v>
+        <v>0.0669033555790719</v>
       </c>
       <c r="I19">
-        <v>0.1617603646819976</v>
+        <v>0.1061304452082918</v>
       </c>
       <c r="J19">
-        <v>2.801734960790213</v>
+        <v>2.112689476157612</v>
       </c>
       <c r="K19">
-        <v>3.798678160983656</v>
+        <v>2.56443205906605</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.9751109392394568</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.0148299737467</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,13 +1478,19 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,37 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.106973945146251</v>
+        <v>0.2385055914606795</v>
       </c>
       <c r="D20">
-        <v>0.1588322958358788</v>
+        <v>0.07975318031007106</v>
       </c>
       <c r="E20">
-        <v>2.236282928749006</v>
+        <v>2.120836124449568</v>
       </c>
       <c r="F20">
-        <v>5.675722308503907</v>
+        <v>4.225633270674024</v>
       </c>
       <c r="G20">
-        <v>6.534389902927103</v>
+        <v>4.812172520423701</v>
       </c>
       <c r="H20">
-        <v>0.07464209603648975</v>
+        <v>0.05757218604315018</v>
       </c>
       <c r="I20">
-        <v>0.190421652198669</v>
+        <v>0.1227599285496037</v>
       </c>
       <c r="J20">
-        <v>3.27352831574342</v>
+        <v>2.395350541745529</v>
       </c>
       <c r="K20">
-        <v>4.421575535223155</v>
+        <v>2.956728336748043</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.105552554222186</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.186315434205383</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,13 +1537,19 @@
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1252463319330133</v>
+        <v>0.2701379662249508</v>
       </c>
       <c r="D21">
-        <v>0.1826703169085562</v>
+        <v>0.08453005761256094</v>
       </c>
       <c r="E21">
-        <v>2.642560679083431</v>
+        <v>2.493524636120497</v>
       </c>
       <c r="F21">
-        <v>6.485826001471594</v>
+        <v>4.678544203365732</v>
       </c>
       <c r="G21">
-        <v>7.480302298419247</v>
+        <v>5.651395973802153</v>
       </c>
       <c r="H21">
-        <v>0.09524027187559447</v>
+        <v>0.07254719032978407</v>
       </c>
       <c r="I21">
-        <v>0.2351031591261581</v>
+        <v>0.1476370262313695</v>
       </c>
       <c r="J21">
-        <v>3.72750502648131</v>
+        <v>2.312528541640461</v>
       </c>
       <c r="K21">
-        <v>5.046257835709014</v>
+        <v>3.2597234183973</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.177240578674912</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.353216040989864</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,13 +1596,19 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,37 +1616,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1367064786950465</v>
+        <v>0.2876760242887855</v>
       </c>
       <c r="D22">
-        <v>0.1974780842360815</v>
+        <v>0.08668298711717171</v>
       </c>
       <c r="E22">
-        <v>2.856634610765354</v>
+        <v>2.684865612037555</v>
       </c>
       <c r="F22">
-        <v>7.009465719252773</v>
+        <v>4.958360458842947</v>
       </c>
       <c r="G22">
-        <v>8.090117382095571</v>
+        <v>6.208417488293094</v>
       </c>
       <c r="H22">
-        <v>0.1090150119297633</v>
+        <v>0.08236079622060544</v>
       </c>
       <c r="I22">
-        <v>0.2660861337935474</v>
+        <v>0.1644108466767866</v>
       </c>
       <c r="J22">
-        <v>4.020092987763292</v>
+        <v>2.234696220290687</v>
       </c>
       <c r="K22">
-        <v>5.452477802834153</v>
+        <v>3.448216004773784</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.219861275737827</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.459969458407699</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,13 +1655,19 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,37 +1675,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1300290421148773</v>
+        <v>0.2776987038931367</v>
       </c>
       <c r="D23">
-        <v>0.1903678742794455</v>
+        <v>0.08666140485739504</v>
       </c>
       <c r="E23">
-        <v>2.742538441538727</v>
+        <v>2.583186351201249</v>
       </c>
       <c r="F23">
-        <v>6.74168245581248</v>
+        <v>4.830969258575522</v>
       </c>
       <c r="G23">
-        <v>7.779346270665997</v>
+        <v>5.90182612078894</v>
       </c>
       <c r="H23">
-        <v>0.1016515501076558</v>
+        <v>0.07716374812610027</v>
       </c>
       <c r="I23">
-        <v>0.2495901517627104</v>
+        <v>0.155524906959803</v>
       </c>
       <c r="J23">
-        <v>3.871190427370436</v>
+        <v>2.321671786223078</v>
       </c>
       <c r="K23">
-        <v>5.248389289953082</v>
+        <v>3.366146178752174</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.20372333149956</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.410412188776363</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,13 +1714,19 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1070992055667546</v>
+        <v>0.2386571105028708</v>
       </c>
       <c r="D24">
-        <v>0.1624579801647599</v>
+        <v>0.08197832265867078</v>
       </c>
       <c r="E24">
-        <v>2.319307126321178</v>
+        <v>2.201448544694429</v>
       </c>
       <c r="F24">
-        <v>5.726347500074212</v>
+        <v>4.264418649387522</v>
       </c>
       <c r="G24">
-        <v>6.598609686814484</v>
+        <v>4.858710116618113</v>
       </c>
       <c r="H24">
-        <v>0.07588640609850827</v>
+        <v>0.05855273394598903</v>
       </c>
       <c r="I24">
-        <v>0.1915320730349777</v>
+        <v>0.1231708857856653</v>
       </c>
       <c r="J24">
-        <v>3.305208532287452</v>
+        <v>2.421956038570954</v>
       </c>
       <c r="K24">
-        <v>4.467108933482365</v>
+        <v>2.988917743601306</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.11766416289062</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.198735849000101</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,13 +1773,19 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08494612628979326</v>
+        <v>0.1891075034856584</v>
       </c>
       <c r="D25">
-        <v>0.1329141237513483</v>
+        <v>0.06949842064553735</v>
       </c>
       <c r="E25">
-        <v>1.879204175865453</v>
+        <v>1.795827887026149</v>
       </c>
       <c r="F25">
-        <v>4.663737231464495</v>
+        <v>3.525320662566429</v>
       </c>
       <c r="G25">
-        <v>5.361709532154521</v>
+        <v>3.972379686257511</v>
       </c>
       <c r="H25">
-        <v>0.05202520286794599</v>
+        <v>0.04053849463209858</v>
       </c>
       <c r="I25">
-        <v>0.1372491228801218</v>
+        <v>0.09058739656205983</v>
       </c>
       <c r="J25">
-        <v>2.712553505478354</v>
+        <v>2.062565494675709</v>
       </c>
       <c r="K25">
-        <v>3.646949644517719</v>
+        <v>2.487013113896865</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.986651352701017</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9395195365577536</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
